--- a/Data/Input/Input.xlsx
+++ b/Data/Input/Input.xlsx
@@ -9,18 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="28170" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="28170"/>
   </bookViews>
   <sheets>
-    <sheet name="Programs (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
   <si>
     <t>Program</t>
   </si>
@@ -62,15 +61,6 @@
   </si>
   <si>
     <t>Browser</t>
-  </si>
-  <si>
-    <t>Folder Explorer - Bottom Right</t>
-  </si>
-  <si>
-    <t>Folder Explorer</t>
-  </si>
-  <si>
-    <t>Folder Explorer - Top Right</t>
   </si>
   <si>
     <t>GitKraken</t>
@@ -1066,319 +1056,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1387,7 +1064,7 @@
   <cols>
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
   </cols>
@@ -1406,7 +1083,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1417,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -1431,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -1445,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1453,13 +1130,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1473,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1487,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -1495,13 +1172,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1515,7 +1192,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1523,13 +1200,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1537,13 +1214,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1551,13 +1228,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1565,13 +1242,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1579,13 +1256,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1593,13 +1270,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1607,13 +1284,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1621,13 +1298,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1635,13 +1312,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1649,13 +1326,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1663,13 +1340,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1677,13 +1354,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1691,13 +1368,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1705,13 +1382,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -1719,13 +1396,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1733,13 +1410,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1747,13 +1424,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1761,13 +1438,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1775,13 +1452,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1789,13 +1466,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1803,13 +1480,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1817,13 +1494,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1831,13 +1508,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1845,13 +1522,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
